--- a/biology/Médecine/Direction_générale_de_l'Alimentation/Direction_générale_de_l'Alimentation.xlsx
+++ b/biology/Médecine/Direction_générale_de_l'Alimentation/Direction_générale_de_l'Alimentation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Alimentation</t>
+          <t>Direction_générale_de_l'Alimentation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La direction générale de l'Alimentation (DGAL ou DGAl) est une direction dépendant du ministère français de l'Agriculture et de l'Alimentation. Son domaine de compétence recouvre la qualité et la protection des végétaux, la santé et la protection animales, la sécurité sanitaire des aliments, l'offre alimentaire et les contrôles aux frontières.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Alimentation</t>
+          <t>Direction_générale_de_l'Alimentation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette direction générale a été créée en 1987, succédant à la direction des Industries Agricoles et Alimentaires et à la direction de la Qualité, elle-même constituée en 1976 sur la base de la direction des Services vétérinaires du ministère de l’Agriculture (qui comprenait à l’époque le service de la Répression des fraudes, transféré à la DGCCRF). 
-Elle fut réformée en 1997 et par la loi d'agriculture de 1999 afin de se concentrer sur la sécurité alimentaire des produits, en liaison avec l'Agence française de sécurité sanitaire des aliments (Afssa, devenue Anses, Agence nationale de sécurité sanitaire de l'alimentation, de l'environnement et du travail, en 2010), créée en 1999. En se recentrant sur les missions de réglementation et de contrôle, la DGAL perd les missions économiques qui sont alors confiées à la direction des Politiques économiques et internationales[1].
+Elle fut réformée en 1997 et par la loi d'agriculture de 1999 afin de se concentrer sur la sécurité alimentaire des produits, en liaison avec l'Agence française de sécurité sanitaire des aliments (Afssa, devenue Anses, Agence nationale de sécurité sanitaire de l'alimentation, de l'environnement et du travail, en 2010), créée en 1999. En se recentrant sur les missions de réglementation et de contrôle, la DGAL perd les missions économiques qui sont alors confiées à la direction des Politiques économiques et internationales.
 La DGAL a été dirigée successivement par :
 André Chavarot : 1987-1989
 Jean-François Guthmann : 1989-1994
@@ -526,8 +540,8 @@
 Jean-Marc Bournigal : 2006-2009.
 Pascale Briand : 2009-2012
 Patrick Dehaumont : du 9 février 2012 au 30 avril 2019 (décret du 9 février 2012 - JORF no 0035 du 10 février 2012 page texte no 72)
-Bruno Ferreira : 2019[2]-2022.
-Maud Faipoux, depuis le 8 juin 2022[3].
+Bruno Ferreira : 2019-2022.
+Maud Faipoux, depuis le 8 juin 2022.
 Emmanuelle Soubeyran est directrice générale adjointe et CVO (Chief Veterinary Officer) depuis le 21 juin 2021.
 </t>
         </is>
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Alimentation</t>
+          <t>Direction_générale_de_l'Alimentation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Direction générale de l'Alimentation (DGAL) est chargée de réglementer, de contrôler et de garantir la qualité, la sécurité et l'innocuité des aliments, ainsi que de gérer les situations d'urgence sanitaire liées à l'alimentation. Pour cela, elle dispose de leviers d'action sur les plans juridique, de la police sanitaire, du contrôle et de la gestion des urgences sanitaires. La DGAL pilote également la politique nationale de l'alimentation et coordonne les plans d'action en région adaptés aux situations locales. En outre, elle joue un rôle important dans la défense des positions françaises au niveau européen en matière de sécurité alimentaire.
 Les principales missions sont : 
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Alimentation</t>
+          <t>Direction_générale_de_l'Alimentation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Organigramme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Directrice générale : Maud Faipoux
 Directrice générale adjointe : Emmanuelle Soubeyran
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Alimentation</t>
+          <t>Direction_générale_de_l'Alimentation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,13 +653,15 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour mettre en œuvre ses actions sur le terrain, la direction générale de l'Alimentation s'appuie sur les services déconcentrés de l'État :
 en région avec les directions régionales de l'Alimentation, de l'Agriculture et de la Forêt (DRAAF) ;
 en département avec les directions départementales de la Protection des populations (DDPP) et les directions départementales de la Cohésion sociale et de la Protection des populations (DDCSPP) ;
 en départements et régions d'outre-mer avec les directions de l'Alimentation, de l'Agriculture et de la Forêt (DAAF).
-La DGAL délègue certaines missions à des organismes à vocation sanitaire (santé animale et végétale), à des vétérinaires mandatés (santé et protection animale) et dans le cas particulier de la santé des semences et plants, aux services de contrôle de la qualité des semences (SOC, CTIFL, FranceAgriMer)[4].
+La DGAL délègue certaines missions à des organismes à vocation sanitaire (santé animale et végétale), à des vétérinaires mandatés (santé et protection animale) et dans le cas particulier de la santé des semences et plants, aux services de contrôle de la qualité des semences (SOC, CTIFL, FranceAgriMer).
 </t>
         </is>
       </c>
@@ -652,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_l%27Alimentation</t>
+          <t>Direction_générale_de_l'Alimentation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,9 +690,11 @@
           <t>Moyens humains</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instrument opérationnel de l’action publique, la DGAL regroupe 4 800 personnes qui s’appuient sur un maillage territorial et des relais de compétences diverses dont 14 000 vétérinaires praticiens détenant le mandat sanitaire, 30 laboratoires nationaux de référence et sur 150 laboratoires d’analyses spécialisés majoritairement composés de laboratoires départementaux d’analyse[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instrument opérationnel de l’action publique, la DGAL regroupe 4 800 personnes qui s’appuient sur un maillage territorial et des relais de compétences diverses dont 14 000 vétérinaires praticiens détenant le mandat sanitaire, 30 laboratoires nationaux de référence et sur 150 laboratoires d’analyses spécialisés majoritairement composés de laboratoires départementaux d’analyse.
 </t>
         </is>
       </c>
